--- a/Draft project plan.xlsx
+++ b/Draft project plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Newcastle\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1175B7F-4F82-4856-8179-20E5AC94B407}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA3EC88-0033-41B6-A74C-05A77E8CD71C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{B4C48C62-75A8-4245-BB0C-22D26E733F0A}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,13 +370,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,45 +413,46 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{07B1BD83-AE40-4FD0-A180-40DB54759FC7}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -735,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C76B9B-D484-4B7A-BF3D-26BB456E23D9}">
   <dimension ref="A2:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,311 +776,322 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18" t="s">
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="J4" s="2" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="J4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="AC4" s="16" t="s">
+      <c r="K4" s="20"/>
+      <c r="AC4" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="AC5" s="16"/>
+      <c r="A5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="AC5" s="15"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="AC6" s="16"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="AC6" s="15"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="AC7" s="16"/>
+      <c r="A7" s="11"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="AC7" s="15"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="AC8" s="16"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="AC8" s="15"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="AC9" s="16"/>
+      <c r="A9" s="12"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="AC9" s="15"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="16"/>
+      <c r="E10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="15"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10" t="s">
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="9"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T14" s="19" t="s">
+      <c r="T14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="U14" s="19" t="s">
+      <c r="U14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="X14" s="19" t="s">
+      <c r="X14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AC14" s="19" t="s">
+      <c r="AC14" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="AC15" s="19"/>
+      <c r="A15" s="13"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="AC15" s="9"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="AC16" s="19"/>
+      <c r="A16" s="13"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="AC16" s="9"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="X17" s="19"/>
+      <c r="A17" s="13"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
+      <c r="A18" s="13"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AC4:AC10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="J4:K11"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="U2:X2"/>
     <mergeCell ref="T14:T18"/>
     <mergeCell ref="U14:U18"/>
     <mergeCell ref="X14:X17"/>
@@ -1064,17 +1103,6 @@
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AC4:AC10"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="J4:K11"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Draft project plan.xlsx
+++ b/Draft project plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA3EC88-0033-41B6-A74C-05A77E8CD71C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A714EFF4-D759-42BC-951B-201F727F6FC2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{B4C48C62-75A8-4245-BB0C-22D26E733F0A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Research</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Week (W/C)</t>
-  </si>
-  <si>
     <t>5 (29th)</t>
   </si>
   <si>
@@ -217,6 +214,12 @@
   </si>
   <si>
     <t xml:space="preserve">Peer review 2  - 3rd </t>
+  </si>
+  <si>
+    <t>Official week num</t>
+  </si>
+  <si>
+    <t>Week num  (W/C)</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,6 +386,30 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -396,27 +423,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -761,15 +767,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C76B9B-D484-4B7A-BF3D-26BB456E23D9}">
-  <dimension ref="A2:AC18"/>
+  <dimension ref="A2:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
@@ -782,199 +788,267 @@
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+    </row>
+    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9">
+        <v>11</v>
+      </c>
+      <c r="J3" s="9">
+        <v>12</v>
+      </c>
+      <c r="K3" s="9">
         <v>13</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14" t="s">
+      <c r="L3" s="9">
+        <v>14</v>
+      </c>
+      <c r="M3" s="9">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9">
+        <v>16</v>
+      </c>
+      <c r="O3" s="9">
+        <v>17</v>
+      </c>
+      <c r="P3" s="9">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>19</v>
+      </c>
+      <c r="R3" s="9">
         <v>20</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14" t="s">
+      <c r="S3" s="9">
+        <v>21</v>
+      </c>
+      <c r="T3" s="9">
+        <v>22</v>
+      </c>
+      <c r="U3" s="9">
+        <v>23</v>
+      </c>
+      <c r="V3" s="9">
+        <v>24</v>
+      </c>
+      <c r="W3" s="9">
         <v>25</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14" t="s">
+      <c r="X3" s="9">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="9">
         <v>30</v>
       </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14" t="s">
+      <c r="AC3" s="9">
         <v>31</v>
       </c>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-    </row>
-    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="L4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="8" t="s">
+      <c r="K5" s="16"/>
+      <c r="AC5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="J4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="20"/>
-      <c r="AC4" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="AC5" s="15"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    </row>
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="AC6" s="11"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="AC6" s="15"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="AC7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="AC7" s="11"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="19"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="AC8" s="11"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="AC8" s="15"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -987,122 +1061,140 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="AC9" s="15"/>
+      <c r="AC9" s="11"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="20"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="AC10" s="11"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="15"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="E11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="11"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="J13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="18"/>
-    </row>
-    <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="O13" s="14"/>
+    </row>
+    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="U15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC15" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC14" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="AC15" s="9"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="AC16" s="9"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="X17" s="9"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
+      <c r="A16" s="21"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="AC16" s="17"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="AC17" s="17"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="X18" s="17"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="T15:T19"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="X15:X18"/>
+    <mergeCell ref="AC15:AC17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A15:A19"/>
     <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AC4:AC10"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AC5:AC11"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="J4:K11"/>
+    <mergeCell ref="J5:K12"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:X2"/>
-    <mergeCell ref="T14:T18"/>
-    <mergeCell ref="U14:U18"/>
-    <mergeCell ref="X14:X17"/>
-    <mergeCell ref="AC14:AC16"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="A14:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1127,47 +1219,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,22 +1267,22 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Draft project plan.xlsx
+++ b/Draft project plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A714EFF4-D759-42BC-951B-201F727F6FC2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E5F170-68BE-46F9-B681-D25E1D570282}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{B4C48C62-75A8-4245-BB0C-22D26E733F0A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Gantt chart" sheetId="1" r:id="rId1"/>
     <sheet name="Details for each" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Research</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Web design needs</t>
   </si>
   <si>
-    <t>App layout design (UI)</t>
-  </si>
-  <si>
     <t>Specification</t>
   </si>
   <si>
@@ -220,6 +217,15 @@
   </si>
   <si>
     <t>Week num  (W/C)</t>
+  </si>
+  <si>
+    <t>App layout design (UI) Storyboard</t>
+  </si>
+  <si>
+    <t>requirements</t>
+  </si>
+  <si>
+    <t>criteria</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,6 +394,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,9 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C76B9B-D484-4B7A-BF3D-26BB456E23D9}">
   <dimension ref="A2:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -788,48 +798,48 @@
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10" t="s">
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="9">
         <v>5</v>
@@ -915,7 +925,7 @@
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
@@ -1000,55 +1010,55 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="J5" s="16" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="J5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="AC5" s="11" t="s">
+      <c r="K5" s="18"/>
+      <c r="AC5" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="AC6" s="11"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="AC6" s="13"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="AC7" s="11"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="AC7" s="13"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="21"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="AC8" s="11"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="AC8" s="13"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1061,12 +1071,12 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="AC9" s="11"/>
+      <c r="AC9" s="13"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="A10" s="22"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1079,97 +1089,97 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="AC10" s="11"/>
+      <c r="AC10" s="13"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="5"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="11"/>
+      <c r="AC11" s="13"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="14"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="U15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC15" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="T15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="U15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC15" s="17" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="AC16" s="17"/>
+      <c r="A16" s="23"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="AC16" s="19"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="AC17" s="17"/>
+      <c r="A17" s="23"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="AC17" s="19"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="X18" s="17"/>
+      <c r="A18" s="23"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="X18" s="19"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
+      <c r="A19" s="23"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1191,10 +1201,10 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="J5:K12"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:X2"/>
+    <mergeCell ref="J5:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1202,19 +1212,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B058B51-C5B5-41BD-9C91-0E4A6CB7E516}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1222,78 +1233,85 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>51</v>
+      <c r="B17" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Draft project plan.xlsx
+++ b/Draft project plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E5F170-68BE-46F9-B681-D25E1D570282}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A14023A-2F5E-4B5B-9B08-AD30FE5D9323}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{B4C48C62-75A8-4245-BB0C-22D26E733F0A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Gantt chart" sheetId="1" r:id="rId1"/>
     <sheet name="Details for each" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021" calcMode="manual"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>Research</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Web design needs</t>
   </si>
   <si>
-    <t>Specification</t>
-  </si>
-  <si>
     <t>This will be updated once specification is drawn up</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>Draft spec &amp; test plan - 12th</t>
   </si>
   <si>
-    <t>Design diagrams and UI designs - 28th</t>
-  </si>
-  <si>
     <t>Final requirements  and test plan - 8th</t>
   </si>
   <si>
@@ -222,10 +216,37 @@
     <t>App layout design (UI) Storyboard</t>
   </si>
   <si>
-    <t>requirements</t>
-  </si>
-  <si>
-    <t>criteria</t>
+    <t>Basic prototype to show layout of app</t>
+  </si>
+  <si>
+    <t>Non submission milestones</t>
+  </si>
+  <si>
+    <t>Design diagrams and UI designs</t>
+  </si>
+  <si>
+    <t>Drawings done</t>
+  </si>
+  <si>
+    <t>Specification (requirements &amp; criteria)</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Draft requirements complete</t>
+  </si>
+  <si>
+    <t>In thurs  meeting</t>
+  </si>
+  <si>
+    <t>feedback only</t>
+  </si>
+  <si>
+    <t>Website mockup drawn</t>
   </si>
 </sst>
 </file>
@@ -248,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,8 +330,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF69"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADC1E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00DE64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -370,11 +415,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,6 +461,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,21 +497,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,6 +552,13 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF00DE64"/>
+      <color rgb="FFADC1E5"/>
+      <color rgb="FFFFFF69"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -779,9 +867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C76B9B-D484-4B7A-BF3D-26BB456E23D9}">
-  <dimension ref="A2:AC19"/>
+  <dimension ref="A2:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -798,48 +888,48 @@
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12" t="s">
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="9">
         <v>5</v>
@@ -925,7 +1015,7 @@
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
@@ -1010,55 +1100,55 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="J5" s="18" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="J5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="AC5" s="13" t="s">
+      <c r="K5" s="23"/>
+      <c r="AC5" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="13"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="AC6" s="13"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="AC6" s="18"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="AC7" s="13"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="AC7" s="18"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="14"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="AC8" s="13"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="AC8" s="18"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1071,12 +1161,12 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="AC9" s="13"/>
+      <c r="AC9" s="18"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1089,7 +1179,7 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="AC10" s="13"/>
+      <c r="AC10" s="18"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -1097,103 +1187,123 @@
       </c>
       <c r="E11" s="5"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="13"/>
+      <c r="AC11" s="18"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="16"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="A15" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="I15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="T15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="T15" s="19" t="s">
+      <c r="X15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U15" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="X15" s="19" t="s">
+      <c r="AC15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AC15" s="19" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="AC16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="AC16" s="12"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="AC17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="AC17" s="12"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="X18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="I18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="X18" s="12"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="I19" s="24"/>
+      <c r="T19" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="U19" s="12"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="T20" s="24"/>
+    </row>
+    <row r="21" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="F22" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="T15:T19"/>
-    <mergeCell ref="U15:U19"/>
-    <mergeCell ref="X15:X18"/>
-    <mergeCell ref="AC15:AC17"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A15:A19"/>
+  <mergeCells count="27">
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="T19:T20"/>
     <mergeCell ref="Y2:AC2"/>
     <mergeCell ref="AC5:AC11"/>
     <mergeCell ref="J13:L13"/>
@@ -1205,6 +1315,16 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:X2"/>
     <mergeCell ref="J5:K11"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="X15:X18"/>
+    <mergeCell ref="AC15:AC17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A15:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1212,105 +1332,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B058B51-C5B5-41BD-9C91-0E4A6CB7E516}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="C2" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C4" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C5" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C6" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C8" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C9" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C10" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="33"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
+      <c r="C18" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Draft project plan.xlsx
+++ b/Draft project plan.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A14023A-2F5E-4B5B-9B08-AD30FE5D9323}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{B4C48C62-75A8-4245-BB0C-22D26E733F0A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt chart" sheetId="1" r:id="rId1"/>
     <sheet name="Details for each" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>Research</t>
   </si>
@@ -180,9 +179,6 @@
     <t>Web design needs</t>
   </si>
   <si>
-    <t>This will be updated once specification is drawn up</t>
-  </si>
-  <si>
     <t>Plan implementation</t>
   </si>
   <si>
@@ -225,9 +221,6 @@
     <t>Design diagrams and UI designs</t>
   </si>
   <si>
-    <t>Drawings done</t>
-  </si>
-  <si>
     <t>Specification (requirements &amp; criteria)</t>
   </si>
   <si>
@@ -237,9 +230,6 @@
     <t>Ongoing</t>
   </si>
   <si>
-    <t>Draft requirements complete</t>
-  </si>
-  <si>
     <t>In thurs  meeting</t>
   </si>
   <si>
@@ -247,13 +237,49 @@
   </si>
   <si>
     <t>Website mockup drawn</t>
+  </si>
+  <si>
+    <t>Back end soft</t>
+  </si>
+  <si>
+    <t>List of: pages, classes, major methods</t>
+  </si>
+  <si>
+    <t>Front end soft - drawn plans into NF pages</t>
+  </si>
+  <si>
+    <t>List of: pages (UI), major method/algorithms, classes</t>
+  </si>
+  <si>
+    <t>Front end (UI) created - non funtioning digital layouts</t>
+  </si>
+  <si>
+    <t>Back end created and integrated</t>
+  </si>
+  <si>
+    <t>Website created</t>
+  </si>
+  <si>
+    <t>Website soft</t>
+  </si>
+  <si>
+    <t>Trade fair poster</t>
+  </si>
+  <si>
+    <t>Trade fair poster soft</t>
+  </si>
+  <si>
+    <t>Updated requirements and test plan</t>
+  </si>
+  <si>
+    <t>Updated UI design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +290,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -355,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -430,11 +463,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,63 +507,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +598,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{07B1BD83-AE40-4FD0-A180-40DB54759FC7}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -866,11 +917,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C76B9B-D484-4B7A-BF3D-26BB456E23D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5:AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,48 +939,48 @@
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="9">
         <v>5</v>
@@ -1015,7 +1066,7 @@
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
@@ -1100,59 +1151,55 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="J5" s="23" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="J5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="AC5" s="18" t="s">
+      <c r="K5" s="25"/>
+      <c r="AC5" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="26"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="AC6" s="18"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="AC6" s="20"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="AC7" s="18"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="AC7" s="20"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="AC8" s="18"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="AC8" s="20"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1161,16 +1208,12 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="AC9" s="18"/>
+      <c r="AC9" s="20"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="A10" s="28"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1179,7 +1222,7 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="AC10" s="18"/>
+      <c r="AC10" s="20"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -1187,123 +1230,144 @@
       </c>
       <c r="E11" s="5"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="18"/>
+      <c r="AC11" s="20"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="21"/>
+      <c r="O13" s="23"/>
     </row>
     <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC15" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC15" s="12" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="AC16" s="12"/>
+      <c r="A16" s="29"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="AC16" s="18"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="AC17" s="12"/>
+      <c r="A17" s="29"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="AC17" s="18"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="I18" s="24" t="s">
+      <c r="A18" s="29"/>
+      <c r="I18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="X18" s="18"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="I19" s="17"/>
+      <c r="T19" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="U19" s="18"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="T20" s="17"/>
+    </row>
+    <row r="21" spans="1:29" s="30" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="P21" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="X18" s="12"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="I19" s="24"/>
-      <c r="T19" s="24" t="s">
+      <c r="S21" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="W21" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="U19" s="12"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="T20" s="24"/>
-    </row>
-    <row r="21" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="F22" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="25"/>
+    </row>
+    <row r="22" spans="1:29" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="W22" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="T19:T20"/>
+  <mergeCells count="29">
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="X15:X18"/>
+    <mergeCell ref="AC15:AC17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A15:A19"/>
     <mergeCell ref="Y2:AC2"/>
     <mergeCell ref="AC5:AC11"/>
     <mergeCell ref="J13:L13"/>
@@ -1315,168 +1379,212 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:X2"/>
     <mergeCell ref="J5:K11"/>
-    <mergeCell ref="U15:U19"/>
-    <mergeCell ref="X15:X18"/>
-    <mergeCell ref="AC15:AC17"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="S21:S22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B058B51-C5B5-41BD-9C91-0E4A6CB7E516}">
-  <dimension ref="A2:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>66</v>
+      <c r="C2" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>66</v>
+      <c r="C3" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>66</v>
+      <c r="C4" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>66</v>
+      <c r="C5" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>66</v>
+      <c r="C6" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>66</v>
+      <c r="C7" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>66</v>
+      <c r="C8" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>67</v>
+      <c r="C9" s="34" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>66</v>
+      <c r="C10" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>68</v>
+      <c r="A13" s="33"/>
+      <c r="B13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="33"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="34"/>
+      <c r="B18" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A18:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/Draft project plan.xlsx
+++ b/Draft project plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\GitHub\Admin-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFE20B8-75B7-4278-9BC4-0BDE4079ECB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt chart" sheetId="1" r:id="rId1"/>
@@ -20,11 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -278,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,62 +509,62 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +594,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -917,68 +913,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5:AC11"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19" t="s">
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19" t="s">
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-    </row>
-    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+    </row>
+    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -1064,7 +1060,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>58</v>
       </c>
@@ -1150,56 +1146,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="J5" s="25" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="J5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="AC5" s="20" t="s">
+      <c r="K5" s="30"/>
+      <c r="AC5" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="AC6" s="20"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="AC6" s="25"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="AC7" s="20"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="AC7" s="25"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="AC8" s="20"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="AC8" s="25"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1208,12 +1204,12 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="AC9" s="20"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="AC9" s="25"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1222,119 +1218,119 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="AC10" s="20"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC10" s="25"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="5"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="20"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC11" s="25"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J13" s="21" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="J13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="23"/>
-    </row>
-    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="O13" s="28"/>
+    </row>
+    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="T15" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="U15" s="18" t="s">
+      <c r="U15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="X15" s="18" t="s">
+      <c r="X15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AC15" s="18" t="s">
+      <c r="AC15" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="AC16" s="18"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="AC17" s="18"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="I18" s="17" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="X16" s="23"/>
+      <c r="AC16" s="19"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="X17" s="23"/>
+      <c r="AC17" s="19"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="I18" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="X18" s="18"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="I19" s="17"/>
-      <c r="T19" s="17" t="s">
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="X18" s="23"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="I19" s="32"/>
+      <c r="T19" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="U19" s="18"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="T20" s="17"/>
-    </row>
-    <row r="21" spans="1:29" s="30" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="U19" s="19"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T20" s="32"/>
+    </row>
+    <row r="21" spans="1:29" s="16" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="P21" s="16" t="s">
+      <c r="G21" s="31"/>
+      <c r="P21" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="S21" s="16" t="s">
+      <c r="S21" s="31" t="s">
         <v>71</v>
       </c>
       <c r="U21" s="12" t="s">
@@ -1344,30 +1340,28 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="F22" s="16" t="s">
+    <row r="22" spans="1:29" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="F22" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="S22" s="16"/>
+      <c r="G22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="S22" s="31"/>
       <c r="W22" s="12" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="U15:U19"/>
-    <mergeCell ref="X15:X18"/>
-    <mergeCell ref="AC15:AC17"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="S21:S22"/>
     <mergeCell ref="Y2:AC2"/>
     <mergeCell ref="AC5:AC11"/>
     <mergeCell ref="J13:L13"/>
@@ -1379,14 +1373,16 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="U2:X2"/>
     <mergeCell ref="J5:K11"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="X15:X18"/>
+    <mergeCell ref="AC15:AC17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A15:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1394,22 +1390,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1419,8 +1415,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="33"/>
       <c r="B3" s="13" t="s">
         <v>41</v>
       </c>
@@ -1428,8 +1424,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
       <c r="B4" s="13" t="s">
         <v>42</v>
       </c>
@@ -1437,8 +1433,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
       <c r="B5" s="13" t="s">
         <v>43</v>
       </c>
@@ -1446,8 +1442,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
       <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
@@ -1455,8 +1451,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
         <v>45</v>
       </c>
@@ -1464,8 +1460,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
       <c r="B8" s="13" t="s">
         <v>46</v>
       </c>
@@ -1473,17 +1469,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="33"/>
       <c r="B9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
       <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
@@ -1491,8 +1487,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1502,8 +1498,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
       <c r="B13" s="14" t="s">
         <v>63</v>
       </c>
@@ -1511,8 +1507,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
       <c r="B14" s="14" t="s">
         <v>39</v>
       </c>
@@ -1520,8 +1516,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
       <c r="B15" s="14" t="s">
         <v>49</v>
       </c>
@@ -1529,52 +1525,52 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="35" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="35" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="35" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="35" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
       <c r="B24" s="15" t="s">
         <v>75</v>
       </c>
